--- a/tabs/benford_anomalous_years.xlsx
+++ b/tabs/benford_anomalous_years.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,15 +500,6 @@
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>MARGIN</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -555,21 +546,6 @@
       <c r="N2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="O2" s="1" t="n">
-        <v>2004</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>2008</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>2020</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -621,21 +597,6 @@
       <c r="N4" t="n">
         <v>0.3059606848446417</v>
       </c>
-      <c r="O4" t="n">
-        <v>0.2194039315155358</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.2415979708306912</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.2029169308814204</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.1280913126188966</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.1395053899809765</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -680,21 +641,6 @@
       <c r="N5" t="n">
         <v>0.1670894102726696</v>
       </c>
-      <c r="O5" t="n">
-        <v>0.2143310082435003</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.2098922003804692</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.1832593532022828</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.1452124286620165</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.1357006975269499</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -739,21 +685,6 @@
       <c r="N6" t="n">
         <v>0.1081166772352568</v>
       </c>
-      <c r="O6" t="n">
-        <v>0.1753329105897273</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.1613823715916297</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.1746987951807229</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.155992390615092</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.1471147748890298</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -798,21 +729,6 @@
       <c r="N7" t="n">
         <v>0.1005072923272036</v>
       </c>
-      <c r="O7" t="n">
-        <v>0.1391883322764743</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.1334812935954344</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.155992390615092</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.1718452758402029</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.163284717818643</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -857,21 +773,6 @@
       <c r="N8" t="n">
         <v>0.08148383005707038</v>
       </c>
-      <c r="O8" t="n">
-        <v>0.09987317691819911</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.09575142675967026</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.1144578313253012</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.1807228915662651</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.1626506024096386</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -916,21 +817,6 @@
       <c r="N9" t="n">
         <v>0.05897273303741281</v>
       </c>
-      <c r="O9" t="n">
-        <v>0.0719720989220038</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.06119213696892835</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.07260621433100824</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.1173113506658212</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.1395053899809765</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -975,21 +861,6 @@
       <c r="N10" t="n">
         <v>0.06119213696892835</v>
       </c>
-      <c r="O10" t="n">
-        <v>0.03329105897273304</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.03868103994927077</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.04819277108433735</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.06467977171845275</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.07577679137603044</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1034,21 +905,6 @@
       <c r="N11" t="n">
         <v>0.06246036778693722</v>
       </c>
-      <c r="O11" t="n">
-        <v>0.02409638554216868</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.03329105897273304</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.02790107799619531</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.01934051997463538</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.02251109701965758</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1093,28 +949,12 @@
       <c r="N12" t="n">
         <v>0.05421686746987952</v>
       </c>
-      <c r="O12" t="n">
-        <v>0.02251109701965758</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.02473050095117311</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.01997463538363982</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.01680405833861763</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.01395053899809765</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="J1:N1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="B1:C1"/>
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabs/benford_anomalous_years.xlsx
+++ b/tabs/benford_anomalous_years.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -68,13 +68,6 @@
     <border>
       <left/>
       <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -453,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,34 +465,22 @@
           <t>DEMOCRAT</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>GREEN</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>REPUBLICAN</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -508,43 +489,19 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>2012</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>2008</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2004</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>2008</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="3">
@@ -559,43 +516,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2844007609384908</v>
+        <v>0.2945466074825618</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2945466074825618</v>
+        <v>0.3155761436016213</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3155761436016213</v>
+        <v>0.3204294079375407</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3204294079375407</v>
+        <v>0.3145921351966201</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3145921351966201</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.284717818642993</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.2945466074825618</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.2951807228915663</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2896573604060914</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.3040583386176284</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.3034242232086239</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.3053265694356373</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.3059606848446417</v>
+        <v>0.3027901077996195</v>
       </c>
     </row>
     <row r="5">
@@ -603,43 +536,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1876981610653139</v>
+        <v>0.1810399492707673</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1810399492707673</v>
+        <v>0.1725535610885929</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1725535610885929</v>
+        <v>0.1763175016265452</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1763175016265452</v>
+        <v>0.1673708157296068</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1673708157296068</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1683576410906785</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.160431198478123</v>
-      </c>
-      <c r="I5" t="n">
         <v>0.1636017755231452</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.157994923857868</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.160431198478123</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.163284717818643</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.1597970830691186</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.1670894102726696</v>
       </c>
     </row>
     <row r="6">
@@ -647,43 +556,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1325301204819277</v>
+        <v>0.1284083703233989</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1284083703233989</v>
+        <v>0.115807759119861</v>
       </c>
       <c r="D6" t="n">
-        <v>0.115807759119861</v>
+        <v>0.1242680546519193</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1242680546519193</v>
+        <v>0.1270718232044199</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1270718232044199</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1277742549143944</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1236525047558656</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1201648700063412</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.1234137055837563</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.1138237159162968</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.1077996195307546</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.1128725428027901</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.1081166772352568</v>
+        <v>0.1125554850982879</v>
       </c>
     </row>
     <row r="7">
@@ -691,43 +576,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1154090044388079</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1154090044388079</v>
+        <v>0.09380428488708743</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09380428488708743</v>
+        <v>0.08945998698763825</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08945998698763825</v>
+        <v>0.09522261943451414</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09522261943451414</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1058972733037413</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.1024096385542169</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0979708306911858</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1027918781725888</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1020925808497146</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1036778693722257</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.09923906150919468</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.1005072923272036</v>
+        <v>0.09765377298668358</v>
       </c>
     </row>
     <row r="8">
@@ -735,43 +596,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07799619530754598</v>
+        <v>0.0653138871274572</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0653138871274572</v>
+        <v>0.08164447017950202</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08164447017950202</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07547169811320754</v>
+        <v>0.07149821254468638</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07149821254468638</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.08845909955611922</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.09162967660114141</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0849714648065948</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.08375634517766498</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0818008877615726</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.07641090678503487</v>
-      </c>
-      <c r="M8" t="n">
         <v>0.07704502219403932</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.08148383005707038</v>
       </c>
     </row>
     <row r="9">
@@ -779,43 +616,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0653138871274572</v>
+        <v>0.06467977171845275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06467977171845275</v>
+        <v>0.06427330631152287</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06427330631152287</v>
+        <v>0.06733897202342225</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06733897202342225</v>
+        <v>0.06077348066298342</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06077348066298342</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.06816740646797717</v>
-      </c>
-      <c r="H9" t="n">
         <v>0.06848446417247939</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.07228915662650602</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.07138324873096447</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.06816740646797717</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0719720989220038</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.07133798351299937</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.05897273303741281</v>
       </c>
     </row>
     <row r="10">
@@ -823,43 +636,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06024096385542169</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05421686746987952</v>
+        <v>0.06601042269832079</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06601042269832079</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05660377358490566</v>
+        <v>0.05979850503737406</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05979850503737406</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.05738744451490171</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.05928979074191503</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.05928979074191503</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.06472081218274112</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.06341154090044387</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.06277742549143944</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.06499682942295498</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.06119213696892835</v>
+        <v>0.07641090678503487</v>
       </c>
     </row>
     <row r="11">
@@ -867,43 +656,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04343690551680406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04748118123914302</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04748118123914302</v>
+        <v>0.04521795705920625</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04521795705920625</v>
+        <v>0.05394865128371791</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05394865128371791</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.05358275206087508</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0554850982878884</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0554850982878884</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.05964467005076142</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.05516804058338617</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.05992390615091947</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.05897273303741281</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.06246036778693722</v>
+        <v>0.05009511731135067</v>
       </c>
     </row>
     <row r="12">
@@ -911,51 +676,24 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04311984781230184</v>
+        <v>0.04375396322130628</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04375396322130628</v>
+        <v>0.04284887087434858</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04284887087434858</v>
+        <v>0.04489264801561484</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04489264801561484</v>
+        <v>0.04972375690607735</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04972375690607735</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0456563094483196</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.04407102092580849</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.05104629042485732</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.04663705583756345</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.05104629042485732</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.05072923272035511</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.05041217501585289</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.05421686746987952</v>
+        <v>0.05136334812935954</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
